--- a/medicine/Psychotrope/Whisky_à_gogo_!/Whisky_à_gogo_!.xlsx
+++ b/medicine/Psychotrope/Whisky_à_gogo_!/Whisky_à_gogo_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Whisky_%C3%A0_gogo_!</t>
+          <t>Whisky_à_gogo_!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Whisky à gogo ! (Whisky Galore!) est un film britannique en N&amp;B réalisé par Alexander Mackendrick, sorti en 1949.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Whisky_%C3%A0_gogo_!</t>
+          <t>Whisky_à_gogo_!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule pendant la Seconde Guerre mondiale, sur une petite île des Hébrides du nom de Todday. La population de l'île, désemparée, doit faire face à l'une des plus grandes catastrophes de son histoire : une pénurie de whisky ! Des habitants repèrent un bateau échoué le long des côtes et, ô miracle, celui-ci est chargé d'une cargaison de 50 000 caisses du précieux breuvage. On met dès lors sur pied une opération de sauvetage pour venir en aide à l'équipage, qui est en fait une habile tactique pour éloigner celui-ci du bateau…
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Whisky_%C3%A0_gogo_!</t>
+          <t>Whisky_à_gogo_!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Whisky à gogo !, comme le roman dont il est issu, est une satire de l'Angleterre vue par des Écossais.
 Le film est le premier long métrage en tant que metteur en scène d'Alexander Mackendrick, qui jusque-là avait travaillé au Service cinématographique de l'armée pendant la Seconde Guerre mondiale, avant de devenir scénariste. C'est Monja Danischewsky, directeur de publicité des studios Ealing depuis 1938, et chargé de la production de ce film, qui voulut que Mackendrick, pourtant novice en la matière, mais d'ascendance écossaise, fût chargé de la mise en scène.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Whisky_%C3%A0_gogo_!</t>
+          <t>Whisky_à_gogo_!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Whisky à gogo !
 Titre original : Whisky Galore!
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Whisky_%C3%A0_gogo_!</t>
+          <t>Whisky_à_gogo_!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Basil Radford : le capitaine Paul Waggett
 Catherine Lacey : Mme Waggett
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Whisky_%C3%A0_gogo_!</t>
+          <t>Whisky_à_gogo_!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,14 +681,16 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En France, le film porta d'abord le titre Whisky a Go Go, et donna son nom à une discothèque parisienne. Le nom fut donné ensuite à une boîte de nuit de West Hollywood, laquelle aurait donné lieu à l'expression go-go dancer.
 Le point de départ du roman de Compton Mackenzie qui a servi de scénario au film n'a rien d'invraisemblable puisqu'il est inspiré par le naufrage, en 1941, sur l'île d'Eriskay, du SS(Steam ship)Politician, de la compagnie TJ Harrison (Liverpool) chargé de 264000 bouteilles de Whisky, et de 145000 livres de l'époque en billets de 10 shillings (6 millions de Livres au cours de 2014).
 Sans surprise, les iliens des Hébrides, guère riches, privés de Whisky (en pleine guerre) et ayant une longue tradition de récupération des épaves, se servirent généreusement dans les cales du SS politician et firent mauvais accueil aux représentants des administrations, des assureurs, et des compagnies de sauvetage maritime.
 La gendarmerie et les juges de paix locaux se montraient d'une extrême mansuétude envers ceux qui étaient pris la main dans le sac, ceci au point que Charles Mc Coll, le douanier local demanda et obtint la permission de plastiquer l'épave, à la stupéfaction indignée des iliens.
 En 2013, deux bouteille de whisky miraculeusement intactes, récupérées par un plongeur local furent mises en vente chez Christie's et atteignirent la somme de 12050 Livres sterling.
-Les histoires où la population d'un village profite de l'alcool que transportait un navire naufragé ne sont d'ailleurs pas rares : c'est aussi le sujet de La fête à Coqueville, nouvelle de Zola[1].</t>
+Les histoires où la population d'un village profite de l'alcool que transportait un navire naufragé ne sont d'ailleurs pas rares : c'est aussi le sujet de La fête à Coqueville, nouvelle de Zola.</t>
         </is>
       </c>
     </row>
